--- a/biology/Zoologie/Eueides_aliphera/Eueides_aliphera.xlsx
+++ b/biology/Zoologie/Eueides_aliphera/Eueides_aliphera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eueides aliphera est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Eueides.
 </t>
@@ -511,18 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eueides aliphera a été décrit par Jean-Baptiste Godart en 1819 sous le nom de Cethosia aliphera.
-Synonymes : Heliconius (Eueides) alipherus ; Brown et Mielke, 1967[1].
-Étymologie
-Aliphera est une cité d'Arcadie.
-Noms vernaculaires
-Eueides aliphera se nomme Juliette ou Fine-lined Longwing en anglais [2],[3].
-Sous-espèces
-Euides aliphera aliphera ; au Brésil et en Guyane.
-Euides aliphera cyllenella Seitz, 1912 ;
-Euides aliphera gracilis Stichel, 1903 ; au Honduras et au Costa Rica[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides aliphera a été décrit par Jean-Baptiste Godart en 1819 sous le nom de Cethosia aliphera.
+Synonymes : Heliconius (Eueides) alipherus ; Brown et Mielke, 1967.
+</t>
         </is>
       </c>
     </row>
@@ -547,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 'est un grand papillon d'une envergure d'environ 56 mm, au dessus orange bordé de marron orné d'une bande marron séparant l'apex orange bordé de marron et une bande marron partant de la base jusqu'au milieu de l'aile[4].
-Le revers est semblable en plus terne
-Chenille
-Elle est jaune avec des rayures noires, orange et blanches et des scolis orange et noirs[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aliphera est une cité d'Arcadie.
 </t>
         </is>
       </c>
@@ -581,14 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago passe la majorité de son temps dans la canopée[2].
-Plantes hôtes
-Ses plantes hôtes sont des Passiflora ou passiflore, Passiflora auriculata, Passiflora oerstedi et Passiflora vitifolia[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides aliphera se nomme Juliette ou Fine-lined Longwing en anglais ,.
 </t>
         </is>
       </c>
@@ -614,14 +628,230 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Euides aliphera aliphera ; au Brésil et en Guyane.
+Euides aliphera cyllenella Seitz, 1912 ;
+Euides aliphera gracilis Stichel, 1903 ; au Honduras et au Costa Rica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 'est un grand papillon d'une envergure d'environ 56 mm, au dessus orange bordé de marron orné d'une bande marron séparant l'apex orange bordé de marron et une bande marron partant de la base jusqu'au milieu de l'aile.
+Le revers est semblable en plus terne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est jaune avec des rayures noires, orange et blanches et des scolis orange et noirs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago passe la majorité de son temps dans la canopée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Passiflora ou passiflore, Passiflora auriculata, Passiflora oerstedi et Passiflora vitifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside du sud du Mexique au Brésil. Il est présent au Mexique en Guyane, au Honduras et au Costa Rica [1].
-Biotope
-Son habitat est la forêt jusqu'à 1 400 mètres d'altitude[5].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside du sud du Mexique au Brésil. Il est présent au Mexique en Guyane, au Honduras et au Costa Rica .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_aliphera</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt jusqu'à 1 400 mètres d'altitude.
 </t>
         </is>
       </c>
